--- a/DOWNLOADS/RESULTADO/arte_heavy_Arte.xlsx
+++ b/DOWNLOADS/RESULTADO/arte_heavy_Arte.xlsx
@@ -13,10 +13,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="6">
+  <si>
+    <t>UASG</t>
+  </si>
+  <si>
+    <t>EDITAL</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Rank Nº</t>
+  </si>
+  <si>
+    <t>Aguardando Disputa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +71,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +389,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>